--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="20055" windowHeight="7695"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="20055" windowHeight="7695" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="data_regression" sheetId="1" r:id="rId1"/>
-    <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
+    <sheet name="data_factor_analysis" sheetId="2" r:id="rId2"/>
     <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="20">
   <si>
     <t>depot</t>
   </si>
@@ -70,6 +70,12 @@
   </si>
   <si>
     <t>nb_typeB</t>
+  </si>
+  <si>
+    <t>nb_typeC</t>
+  </si>
+  <si>
+    <t>nb_typeD</t>
   </si>
 </sst>
 </file>
@@ -403,8 +409,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -431,11 +437,11 @@
       </c>
       <c r="B2">
         <f ca="1">INT(RAND()*10)+3</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C2">
         <f ca="1">INT(RAND()*10)</f>
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -444,11 +450,11 @@
       </c>
       <c r="B3">
         <f t="shared" ref="B3:B16" ca="1" si="0">INT(RAND()*10)+3</f>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C3">
         <f t="shared" ref="C3:C16" ca="1" si="1">INT(RAND()*10)</f>
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -457,11 +463,11 @@
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -470,11 +476,11 @@
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -483,11 +489,11 @@
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -496,11 +502,11 @@
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -509,11 +515,11 @@
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -522,7 +528,7 @@
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="0"/>
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="1"/>
@@ -535,11 +541,11 @@
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -548,11 +554,11 @@
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -561,11 +567,11 @@
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -574,7 +580,7 @@
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="1"/>
@@ -587,11 +593,11 @@
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -600,11 +606,11 @@
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -613,11 +619,11 @@
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -627,12 +633,353 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <f ca="1">INT(RAND()*10)+3</f>
+        <v>10</v>
+      </c>
+      <c r="C2">
+        <f ca="1">INT(RAND()*10)+INT(RANDBETWEEN(2,4))</f>
+        <v>10</v>
+      </c>
+      <c r="D2">
+        <f ca="1">INT(RAND()*10)+INT(RANDBETWEEN(1,3))</f>
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <f ca="1">INT(RAND()*10)+INT(RANDBETWEEN(3,6))</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <f t="shared" ref="B3:B16" ca="1" si="0">INT(RAND()*10)+3</f>
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:C16" ca="1" si="1">INT(RAND()*10)+INT(RANDBETWEEN(2,4))</f>
+        <v>5</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D16" ca="1" si="2">INT(RAND()*10)+INT(RANDBETWEEN(1,3))</f>
+        <v>5</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E16" ca="1" si="3">INT(RAND()*10)+INT(RANDBETWEEN(3,6))</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <f t="shared" ca="1" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="D4">
+        <f t="shared" ca="1" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="E4">
+        <f t="shared" ca="1" si="3"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <f t="shared" ca="1" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="D5">
+        <f t="shared" ca="1" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="E5">
+        <f t="shared" ca="1" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <f t="shared" ca="1" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="D6">
+        <f t="shared" ca="1" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="E6">
+        <f t="shared" ca="1" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <f t="shared" ca="1" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C7">
+        <f t="shared" ca="1" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="D7">
+        <f t="shared" ca="1" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="E7">
+        <f t="shared" ca="1" si="3"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C8">
+        <f t="shared" ca="1" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="D8">
+        <f t="shared" ca="1" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="E8">
+        <f t="shared" ca="1" si="3"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <f t="shared" ca="1" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="C9">
+        <f t="shared" ca="1" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="D9">
+        <f t="shared" ca="1" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="E9">
+        <f t="shared" ca="1" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <f t="shared" ca="1" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <f t="shared" ca="1" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="D10">
+        <f t="shared" ca="1" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="E10">
+        <f t="shared" ca="1" si="3"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <f t="shared" ca="1" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C11">
+        <f t="shared" ca="1" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="D11">
+        <f t="shared" ca="1" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="E11">
+        <f t="shared" ca="1" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <f t="shared" ca="1" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C12">
+        <f t="shared" ca="1" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="D12">
+        <f t="shared" ca="1" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="E12">
+        <f t="shared" ca="1" si="3"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C13">
+        <f t="shared" ca="1" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="D13">
+        <f t="shared" ca="1" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="E13">
+        <f t="shared" ca="1" si="3"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C14">
+        <f t="shared" ca="1" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="D14">
+        <f t="shared" ca="1" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="E14">
+        <f t="shared" ca="1" si="3"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C15">
+        <f t="shared" ca="1" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="D15">
+        <f t="shared" ca="1" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="E15">
+        <f t="shared" ca="1" si="3"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <f t="shared" ca="1" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="C16">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="D16">
+        <f t="shared" ca="1" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="E16">
+        <f t="shared" ca="1" si="3"/>
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="26">
   <si>
     <t>depot</t>
   </si>
@@ -76,6 +76,24 @@
   </si>
   <si>
     <t>nb_typeD</t>
+  </si>
+  <si>
+    <t>color</t>
+  </si>
+  <si>
+    <t>blue</t>
+  </si>
+  <si>
+    <t>red</t>
+  </si>
+  <si>
+    <t>green</t>
+  </si>
+  <si>
+    <t>black</t>
+  </si>
+  <si>
+    <t>shape</t>
   </si>
 </sst>
 </file>
@@ -407,10 +425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C16"/>
+      <selection activeCell="D1" sqref="D1:E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -420,7 +438,7 @@
     <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -430,164 +448,242 @@
       <c r="C1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2">
         <f ca="1">INT(RAND()*10)+3</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2">
         <f ca="1">INT(RAND()*10)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
         <f t="shared" ref="B3:B16" ca="1" si="0">INT(RAND()*10)+3</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3">
         <f t="shared" ref="C3:C16" ca="1" si="1">INT(RAND()*10)</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>6</v>
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>7</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>7</v>
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <f t="shared" ca="1" si="1"/>
         <v>4</v>
       </c>
-      <c r="C8">
-        <f t="shared" ca="1" si="1"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>8</v>
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>3</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>9</v>
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>6</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>10</v>
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="0"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>11</v>
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C12">
+        <f t="shared" ca="1" si="1"/>
         <v>9</v>
       </c>
-      <c r="C12">
-        <f t="shared" ca="1" si="1"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
         <v>12</v>
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="0"/>
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>9</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -597,33 +693,51 @@
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>4</v>
+      </c>
+      <c r="D14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
         <v>14</v>
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="0"/>
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
         <v>15</v>
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="1"/>
         <v>1</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -633,10 +747,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -647,7 +761,7 @@
     <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -663,18 +777,24 @@
       <c r="E1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2">
         <f ca="1">INT(RAND()*10)+3</f>
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C2">
         <f ca="1">INT(RAND()*10)+INT(RANDBETWEEN(2,4))</f>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D2">
         <f ca="1">INT(RAND()*10)+INT(RANDBETWEEN(1,3))</f>
@@ -682,41 +802,53 @@
       </c>
       <c r="E2">
         <f ca="1">INT(RAND()*10)+INT(RANDBETWEEN(3,6))</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
         <f t="shared" ref="B3:B16" ca="1" si="0">INT(RAND()*10)+3</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C3">
         <f t="shared" ref="C3:C16" ca="1" si="1">INT(RAND()*10)+INT(RANDBETWEEN(2,4))</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D3">
         <f t="shared" ref="D3:D16" ca="1" si="2">INT(RAND()*10)+INT(RANDBETWEEN(1,3))</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E3">
         <f t="shared" ref="E3:E16" ca="1" si="3">INT(RAND()*10)+INT(RANDBETWEEN(3,6))</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>9</v>
+      </c>
+      <c r="F3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="2"/>
@@ -724,73 +856,97 @@
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>11</v>
+      </c>
+      <c r="F4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>6</v>
+      </c>
+      <c r="F5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="1"/>
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="2"/>
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>9</v>
+      </c>
+      <c r="F6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>6</v>
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="3"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>13</v>
+      </c>
+      <c r="F7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -800,144 +956,186 @@
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="3"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>10</v>
+      </c>
+      <c r="F8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>8</v>
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="0"/>
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="2"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>6</v>
+      </c>
+      <c r="F9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>9</v>
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="3"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>4</v>
+      </c>
+      <c r="F10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
         <v>10</v>
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="2"/>
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="3"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="F11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
         <v>11</v>
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="3"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>10</v>
+      </c>
+      <c r="F12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
         <v>12</v>
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="1"/>
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="2"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="3"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>14</v>
+      </c>
+      <c r="F13" t="s">
+        <v>23</v>
+      </c>
+      <c r="G13">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
         <v>13</v>
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="1"/>
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="3"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>12</v>
+      </c>
+      <c r="F14" t="s">
+        <v>23</v>
+      </c>
+      <c r="G14">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -947,18 +1145,24 @@
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>8</v>
+      </c>
+      <c r="F15" t="s">
+        <v>23</v>
+      </c>
+      <c r="G15">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -968,15 +1172,21 @@
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D16">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="3"/>
-        <v>14</v>
+        <v>6</v>
+      </c>
+      <c r="F16" t="s">
+        <v>24</v>
+      </c>
+      <c r="G16">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -90,10 +90,10 @@
     <t>green</t>
   </si>
   <si>
-    <t>black</t>
-  </si>
-  <si>
     <t>shape</t>
+  </si>
+  <si>
+    <t>purple</t>
   </si>
 </sst>
 </file>
@@ -428,7 +428,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:E16"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -452,7 +452,7 @@
         <v>20</v>
       </c>
       <c r="E1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -461,11 +461,11 @@
       </c>
       <c r="B2">
         <f ca="1">INT(RAND()*10)+3</f>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C2">
         <f ca="1">INT(RAND()*10)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2" t="s">
         <v>21</v>
@@ -480,11 +480,11 @@
       </c>
       <c r="B3">
         <f t="shared" ref="B3:B16" ca="1" si="0">INT(RAND()*10)+3</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C3">
         <f t="shared" ref="C3:C16" ca="1" si="1">INT(RAND()*10)</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -499,11 +499,11 @@
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
         <v>21</v>
@@ -518,11 +518,11 @@
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="0"/>
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D5" t="s">
         <v>21</v>
@@ -537,11 +537,11 @@
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
         <v>21</v>
@@ -556,11 +556,11 @@
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
@@ -575,11 +575,11 @@
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D8" t="s">
         <v>22</v>
@@ -594,11 +594,11 @@
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C9">
+        <f t="shared" ca="1" si="1"/>
         <v>7</v>
-      </c>
-      <c r="C9">
-        <f t="shared" ca="1" si="1"/>
-        <v>3</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
@@ -613,7 +613,7 @@
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="1"/>
@@ -632,11 +632,11 @@
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="0"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D11" t="s">
         <v>22</v>
@@ -651,7 +651,7 @@
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="1"/>
@@ -670,11 +670,11 @@
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D13" t="s">
         <v>23</v>
@@ -689,11 +689,11 @@
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="0"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D14" t="s">
         <v>23</v>
@@ -708,11 +708,11 @@
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D15" t="s">
         <v>23</v>
@@ -727,14 +727,14 @@
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E16">
         <v>18</v>
@@ -750,7 +750,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -781,7 +781,7 @@
         <v>20</v>
       </c>
       <c r="G1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -790,19 +790,19 @@
       </c>
       <c r="B2">
         <f ca="1">INT(RAND()*10)+3</f>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C2">
         <f ca="1">INT(RAND()*10)+INT(RANDBETWEEN(2,4))</f>
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D2">
         <f ca="1">INT(RAND()*10)+INT(RANDBETWEEN(1,3))</f>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E2">
         <f ca="1">INT(RAND()*10)+INT(RANDBETWEEN(3,6))</f>
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F2" t="s">
         <v>21</v>
@@ -817,19 +817,19 @@
       </c>
       <c r="B3">
         <f t="shared" ref="B3:B16" ca="1" si="0">INT(RAND()*10)+3</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3">
         <f t="shared" ref="C3:C16" ca="1" si="1">INT(RAND()*10)+INT(RANDBETWEEN(2,4))</f>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D3">
         <f t="shared" ref="D3:D16" ca="1" si="2">INT(RAND()*10)+INT(RANDBETWEEN(1,3))</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E3">
         <f t="shared" ref="E3:E16" ca="1" si="3">INT(RAND()*10)+INT(RANDBETWEEN(3,6))</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
         <v>21</v>
@@ -844,19 +844,19 @@
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="3"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F4" t="s">
         <v>21</v>
@@ -871,19 +871,19 @@
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="0"/>
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="2"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F5" t="s">
         <v>21</v>
@@ -902,15 +902,15 @@
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="2"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="3"/>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
         <v>21</v>
@@ -925,19 +925,19 @@
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="0"/>
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="3"/>
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="F7" t="s">
         <v>21</v>
@@ -952,19 +952,19 @@
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="3"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F8" t="s">
         <v>22</v>
@@ -979,19 +979,19 @@
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F9" t="s">
         <v>22</v>
@@ -1006,19 +1006,19 @@
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F10" t="s">
         <v>22</v>
@@ -1033,19 +1033,19 @@
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="0"/>
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="1"/>
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F11" t="s">
         <v>22</v>
@@ -1060,19 +1060,19 @@
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="1"/>
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="2"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="3"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F12" t="s">
         <v>22</v>
@@ -1087,19 +1087,19 @@
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="0"/>
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="2"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="3"/>
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F13" t="s">
         <v>23</v>
@@ -1114,19 +1114,19 @@
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="0"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="2"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="3"/>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F14" t="s">
         <v>23</v>
@@ -1141,19 +1141,19 @@
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="3"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F15" t="s">
         <v>23</v>
@@ -1168,22 +1168,22 @@
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="0"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D16">
         <f t="shared" ca="1" si="2"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G16">
         <v>18</v>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -4,19 +4,18 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="20055" windowHeight="7695" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="20055" windowHeight="7695"/>
   </bookViews>
   <sheets>
-    <sheet name="data_regression" sheetId="1" r:id="rId1"/>
-    <sheet name="data_factor_analysis" sheetId="2" r:id="rId2"/>
-    <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
+    <sheet name="data_factor_analysis" sheetId="2" r:id="rId1"/>
+    <sheet name="Feuil3" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="28">
   <si>
     <t>depot</t>
   </si>
@@ -94,6 +93,12 @@
   </si>
   <si>
     <t>purple</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>y</t>
   </si>
 </sst>
 </file>
@@ -425,332 +430,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <f ca="1">INT(RAND()*10)+3</f>
-        <v>8</v>
-      </c>
-      <c r="C2">
-        <f ca="1">INT(RAND()*10)</f>
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <f t="shared" ref="B3:B16" ca="1" si="0">INT(RAND()*10)+3</f>
-        <v>11</v>
-      </c>
-      <c r="C3">
-        <f t="shared" ref="C3:C16" ca="1" si="1">INT(RAND()*10)</f>
-        <v>0</v>
-      </c>
-      <c r="D3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <f t="shared" ca="1" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="C4">
-        <f t="shared" ca="1" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <f t="shared" ca="1" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="C5">
-        <f t="shared" ca="1" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <f t="shared" ca="1" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="C6">
-        <f t="shared" ca="1" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <f t="shared" ca="1" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="C7">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <f t="shared" ca="1" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="C8">
-        <f t="shared" ca="1" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="D8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C9">
-        <f t="shared" ca="1" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <f t="shared" ca="1" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="C10">
-        <f t="shared" ca="1" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <f t="shared" ca="1" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="C11">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <f t="shared" ca="1" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="C12">
-        <f t="shared" ca="1" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13">
-        <f t="shared" ca="1" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="C13">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14">
-        <f t="shared" ca="1" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="C14">
-        <f t="shared" ca="1" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="D14" t="s">
-        <v>23</v>
-      </c>
-      <c r="E14">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15">
-        <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C15">
-        <f t="shared" ca="1" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="D15" t="s">
-        <v>23</v>
-      </c>
-      <c r="E15">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16">
-        <f t="shared" ca="1" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="C16">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E16">
-        <v>18</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -761,7 +444,7 @@
     <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -783,26 +466,32 @@
       <c r="G1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2">
         <f ca="1">INT(RAND()*10)+3</f>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C2">
         <f ca="1">INT(RAND()*10)+INT(RANDBETWEEN(2,4))</f>
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D2">
         <f ca="1">INT(RAND()*10)+INT(RANDBETWEEN(1,3))</f>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E2">
         <f ca="1">INT(RAND()*10)+INT(RANDBETWEEN(3,6))</f>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F2" t="s">
         <v>21</v>
@@ -810,26 +499,34 @@
       <c r="G2">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2">
+        <f ca="1">(-1.6+RAND()-RAND())</f>
+        <v>-1.6924919022757461</v>
+      </c>
+      <c r="I2">
+        <f ca="1">(48+RAND()-RAND())</f>
+        <v>48.278133051112931</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
         <f t="shared" ref="B3:B16" ca="1" si="0">INT(RAND()*10)+3</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C3">
         <f t="shared" ref="C3:C16" ca="1" si="1">INT(RAND()*10)+INT(RANDBETWEEN(2,4))</f>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D3">
         <f t="shared" ref="D3:D16" ca="1" si="2">INT(RAND()*10)+INT(RANDBETWEEN(1,3))</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E3">
         <f t="shared" ref="E3:E16" ca="1" si="3">INT(RAND()*10)+INT(RANDBETWEEN(3,6))</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
         <v>21</v>
@@ -837,26 +534,34 @@
       <c r="G3">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3">
+        <f t="shared" ref="H3:H16" ca="1" si="4">(-1.6+RAND()-RAND())</f>
+        <v>-1.4275386241162846</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I16" ca="1" si="5">(48+RAND()-RAND())</f>
+        <v>47.234348839951842</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <f t="shared" ca="1" si="3"/>
         <v>6</v>
-      </c>
-      <c r="E4">
-        <f t="shared" ca="1" si="3"/>
-        <v>13</v>
       </c>
       <c r="F4" t="s">
         <v>21</v>
@@ -864,26 +569,34 @@
       <c r="G4">
         <v>16</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4">
+        <f t="shared" ca="1" si="4"/>
+        <v>-2.1536811228395094</v>
+      </c>
+      <c r="I4">
+        <f t="shared" ca="1" si="5"/>
+        <v>48.191180017986795</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F5" t="s">
         <v>21</v>
@@ -891,26 +604,34 @@
       <c r="G5">
         <v>16</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <f t="shared" ca="1" si="4"/>
+        <v>-2.3319342184178011</v>
+      </c>
+      <c r="I5">
+        <f t="shared" ca="1" si="5"/>
+        <v>48.437595546872522</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="3"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F6" t="s">
         <v>21</v>
@@ -918,26 +639,34 @@
       <c r="G6">
         <v>16</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="H6">
+        <f t="shared" ca="1" si="4"/>
+        <v>-1.5300667715556082</v>
+      </c>
+      <c r="I6">
+        <f t="shared" ca="1" si="5"/>
+        <v>48.107226561777551</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
         <v>6</v>
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="D7">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <f t="shared" ca="1" si="3"/>
         <v>3</v>
-      </c>
-      <c r="D7">
-        <f t="shared" ca="1" si="2"/>
-        <v>8</v>
-      </c>
-      <c r="E7">
-        <f t="shared" ca="1" si="3"/>
-        <v>5</v>
       </c>
       <c r="F7" t="s">
         <v>21</v>
@@ -945,26 +674,34 @@
       <c r="G7">
         <v>16</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="H7">
+        <f t="shared" ca="1" si="4"/>
+        <v>-1.567532120260263</v>
+      </c>
+      <c r="I7">
+        <f t="shared" ca="1" si="5"/>
+        <v>47.847804371513739</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
         <v>7</v>
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F8" t="s">
         <v>22</v>
@@ -972,22 +709,30 @@
       <c r="G8">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="H8">
+        <f t="shared" ca="1" si="4"/>
+        <v>-2.0359545708014806</v>
+      </c>
+      <c r="I8">
+        <f t="shared" ca="1" si="5"/>
+        <v>47.469323624803856</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
         <v>8</v>
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="2"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="3"/>
@@ -999,26 +744,34 @@
       <c r="G9">
         <v>15</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="H9">
+        <f t="shared" ca="1" si="4"/>
+        <v>-1.3202572923301061</v>
+      </c>
+      <c r="I9">
+        <f t="shared" ca="1" si="5"/>
+        <v>48.794767403055893</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
         <v>9</v>
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="C10">
+        <f t="shared" ca="1" si="1"/>
         <v>5</v>
       </c>
-      <c r="C10">
-        <f t="shared" ca="1" si="1"/>
-        <v>3</v>
-      </c>
       <c r="D10">
         <f t="shared" ca="1" si="2"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="3"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
         <v>22</v>
@@ -1026,26 +779,34 @@
       <c r="G10">
         <v>15</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="H10">
+        <f t="shared" ca="1" si="4"/>
+        <v>-0.97005780603650194</v>
+      </c>
+      <c r="I10">
+        <f t="shared" ca="1" si="5"/>
+        <v>48.266827797086563</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
         <v>10</v>
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="2"/>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="3"/>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F11" t="s">
         <v>22</v>
@@ -1053,26 +814,34 @@
       <c r="G11">
         <v>15</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="H11">
+        <f t="shared" ca="1" si="4"/>
+        <v>-1.145014820237312</v>
+      </c>
+      <c r="I11">
+        <f t="shared" ca="1" si="5"/>
+        <v>47.581474295048594</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" t="s">
         <v>11</v>
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="3"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F12" t="s">
         <v>22</v>
@@ -1080,22 +849,30 @@
       <c r="G12">
         <v>15</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="H12">
+        <f t="shared" ca="1" si="4"/>
+        <v>-1.2854180412580916</v>
+      </c>
+      <c r="I12">
+        <f t="shared" ca="1" si="5"/>
+        <v>48.281827510238578</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" t="s">
         <v>12</v>
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="2"/>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="3"/>
@@ -1107,14 +884,22 @@
       <c r="G13">
         <v>17</v>
       </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="H13">
+        <f t="shared" ca="1" si="4"/>
+        <v>-1.18317504160131</v>
+      </c>
+      <c r="I13">
+        <f t="shared" ca="1" si="5"/>
+        <v>48.082354598653396</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" t="s">
         <v>13</v>
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="1"/>
@@ -1122,11 +907,11 @@
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="2"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="3"/>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F14" t="s">
         <v>23</v>
@@ -1134,26 +919,34 @@
       <c r="G14">
         <v>17</v>
       </c>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="H14">
+        <f t="shared" ca="1" si="4"/>
+        <v>-1.2446451233614986</v>
+      </c>
+      <c r="I14">
+        <f t="shared" ca="1" si="5"/>
+        <v>47.249588675437479</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" t="s">
         <v>14</v>
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="1"/>
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="2"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="3"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F15" t="s">
         <v>23</v>
@@ -1161,32 +954,48 @@
       <c r="G15">
         <v>17</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15">
+        <f t="shared" ca="1" si="4"/>
+        <v>-1.8456552286698733</v>
+      </c>
+      <c r="I15">
+        <f t="shared" ca="1" si="5"/>
+        <v>48.171537957852173</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" t="s">
         <v>15</v>
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D16">
         <f t="shared" ca="1" si="2"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F16" t="s">
         <v>25</v>
       </c>
       <c r="G16">
         <v>18</v>
+      </c>
+      <c r="H16">
+        <f t="shared" ca="1" si="4"/>
+        <v>-2.2151303989616355</v>
+      </c>
+      <c r="I16">
+        <f t="shared" ca="1" si="5"/>
+        <v>48.428341768484856</v>
       </c>
     </row>
   </sheetData>
@@ -1194,7 +1003,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -433,7 +433,7 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -479,19 +479,19 @@
       </c>
       <c r="B2">
         <f ca="1">INT(RAND()*10)+3</f>
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C2">
         <f ca="1">INT(RAND()*10)+INT(RANDBETWEEN(2,4))</f>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D2">
         <f ca="1">INT(RAND()*10)+INT(RANDBETWEEN(1,3))</f>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E2">
         <f ca="1">INT(RAND()*10)+INT(RANDBETWEEN(3,6))</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F2" t="s">
         <v>21</v>
@@ -501,11 +501,11 @@
       </c>
       <c r="H2">
         <f ca="1">(-1.6+RAND()-RAND())</f>
-        <v>-1.6924919022757461</v>
+        <v>-1.5415107556427645</v>
       </c>
       <c r="I2">
         <f ca="1">(48+RAND()-RAND())</f>
-        <v>48.278133051112931</v>
+        <v>47.820727997378881</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -514,15 +514,15 @@
       </c>
       <c r="B3">
         <f t="shared" ref="B3:B16" ca="1" si="0">INT(RAND()*10)+3</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3">
         <f t="shared" ref="C3:C16" ca="1" si="1">INT(RAND()*10)+INT(RANDBETWEEN(2,4))</f>
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D3">
         <f t="shared" ref="D3:D16" ca="1" si="2">INT(RAND()*10)+INT(RANDBETWEEN(1,3))</f>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E3">
         <f t="shared" ref="E3:E16" ca="1" si="3">INT(RAND()*10)+INT(RANDBETWEEN(3,6))</f>
@@ -536,11 +536,11 @@
       </c>
       <c r="H3">
         <f t="shared" ref="H3:H16" ca="1" si="4">(-1.6+RAND()-RAND())</f>
-        <v>-1.4275386241162846</v>
+        <v>-1.7293412469426079</v>
       </c>
       <c r="I3">
         <f t="shared" ref="I3:I16" ca="1" si="5">(48+RAND()-RAND())</f>
-        <v>47.234348839951842</v>
+        <v>48.085729200730178</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -549,19 +549,19 @@
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <f t="shared" ca="1" si="1"/>
         <v>12</v>
       </c>
-      <c r="C4">
-        <f t="shared" ca="1" si="1"/>
+      <c r="D4">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <f t="shared" ca="1" si="3"/>
         <v>12</v>
-      </c>
-      <c r="D4">
-        <f t="shared" ca="1" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="E4">
-        <f t="shared" ca="1" si="3"/>
-        <v>6</v>
       </c>
       <c r="F4" t="s">
         <v>21</v>
@@ -571,11 +571,11 @@
       </c>
       <c r="H4">
         <f t="shared" ca="1" si="4"/>
-        <v>-2.1536811228395094</v>
+        <v>-2.027519611395324</v>
       </c>
       <c r="I4">
         <f t="shared" ca="1" si="5"/>
-        <v>48.191180017986795</v>
+        <v>48.389134917745444</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -584,15 +584,15 @@
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="2"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="3"/>
@@ -606,11 +606,11 @@
       </c>
       <c r="H5">
         <f t="shared" ca="1" si="4"/>
-        <v>-2.3319342184178011</v>
+        <v>-1.7879687932739441</v>
       </c>
       <c r="I5">
         <f t="shared" ca="1" si="5"/>
-        <v>48.437595546872522</v>
+        <v>47.701634917510432</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -619,19 +619,19 @@
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="2"/>
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="3"/>
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="F6" t="s">
         <v>21</v>
@@ -641,11 +641,11 @@
       </c>
       <c r="H6">
         <f t="shared" ca="1" si="4"/>
-        <v>-1.5300667715556082</v>
+        <v>-0.85909664494904114</v>
       </c>
       <c r="I6">
         <f t="shared" ca="1" si="5"/>
-        <v>48.107226561777551</v>
+        <v>48.098790798671303</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -654,19 +654,19 @@
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="0"/>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="1"/>
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F7" t="s">
         <v>21</v>
@@ -676,11 +676,11 @@
       </c>
       <c r="H7">
         <f t="shared" ca="1" si="4"/>
-        <v>-1.567532120260263</v>
+        <v>-0.87247974843345388</v>
       </c>
       <c r="I7">
         <f t="shared" ca="1" si="5"/>
-        <v>47.847804371513739</v>
+        <v>47.812965994987195</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -689,19 +689,19 @@
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="1"/>
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="2"/>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="3"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F8" t="s">
         <v>22</v>
@@ -711,11 +711,11 @@
       </c>
       <c r="H8">
         <f t="shared" ca="1" si="4"/>
-        <v>-2.0359545708014806</v>
+        <v>-1.5402496617972985</v>
       </c>
       <c r="I8">
         <f t="shared" ca="1" si="5"/>
-        <v>47.469323624803856</v>
+        <v>47.725506360937146</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -724,19 +724,19 @@
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="3"/>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F9" t="s">
         <v>22</v>
@@ -746,11 +746,11 @@
       </c>
       <c r="H9">
         <f t="shared" ca="1" si="4"/>
-        <v>-1.3202572923301061</v>
+        <v>-1.3806993181121292</v>
       </c>
       <c r="I9">
         <f t="shared" ca="1" si="5"/>
-        <v>48.794767403055893</v>
+        <v>48.053876698712131</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -759,19 +759,19 @@
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="0"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="D10">
+        <f t="shared" ca="1" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="E10">
+        <f t="shared" ca="1" si="3"/>
         <v>5</v>
-      </c>
-      <c r="D10">
-        <f t="shared" ca="1" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="E10">
-        <f t="shared" ca="1" si="3"/>
-        <v>11</v>
       </c>
       <c r="F10" t="s">
         <v>22</v>
@@ -781,11 +781,11 @@
       </c>
       <c r="H10">
         <f t="shared" ca="1" si="4"/>
-        <v>-0.97005780603650194</v>
+        <v>-1.9093853501366496</v>
       </c>
       <c r="I10">
         <f t="shared" ca="1" si="5"/>
-        <v>48.266827797086563</v>
+        <v>47.973734007205834</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -794,19 +794,19 @@
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C11">
+        <f t="shared" ca="1" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="D11">
+        <f t="shared" ca="1" si="2"/>
         <v>9</v>
       </c>
-      <c r="C11">
-        <f t="shared" ca="1" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="D11">
-        <f t="shared" ca="1" si="2"/>
-        <v>7</v>
-      </c>
       <c r="E11">
         <f t="shared" ca="1" si="3"/>
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="F11" t="s">
         <v>22</v>
@@ -816,11 +816,11 @@
       </c>
       <c r="H11">
         <f t="shared" ca="1" si="4"/>
-        <v>-1.145014820237312</v>
+        <v>-1.779952412146101</v>
       </c>
       <c r="I11">
         <f t="shared" ca="1" si="5"/>
-        <v>47.581474295048594</v>
+        <v>48.461626021304021</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -829,7 +829,7 @@
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="1"/>
@@ -837,11 +837,11 @@
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="3"/>
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F12" t="s">
         <v>22</v>
@@ -851,11 +851,11 @@
       </c>
       <c r="H12">
         <f t="shared" ca="1" si="4"/>
-        <v>-1.2854180412580916</v>
+        <v>-1.2245625048073108</v>
       </c>
       <c r="I12">
         <f t="shared" ca="1" si="5"/>
-        <v>48.281827510238578</v>
+        <v>48.212782712869974</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -864,19 +864,19 @@
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="C13">
+        <f t="shared" ca="1" si="1"/>
         <v>9</v>
       </c>
-      <c r="C13">
-        <f t="shared" ca="1" si="1"/>
-        <v>9</v>
-      </c>
       <c r="D13">
         <f t="shared" ca="1" si="2"/>
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="3"/>
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F13" t="s">
         <v>23</v>
@@ -886,11 +886,11 @@
       </c>
       <c r="H13">
         <f t="shared" ca="1" si="4"/>
-        <v>-1.18317504160131</v>
+        <v>-1.8713037999689648</v>
       </c>
       <c r="I13">
         <f t="shared" ca="1" si="5"/>
-        <v>48.082354598653396</v>
+        <v>48.699989878672689</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -899,19 +899,19 @@
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="1"/>
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="3"/>
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="F14" t="s">
         <v>23</v>
@@ -921,11 +921,11 @@
       </c>
       <c r="H14">
         <f t="shared" ca="1" si="4"/>
-        <v>-1.2446451233614986</v>
+        <v>-1.6863819620818876</v>
       </c>
       <c r="I14">
         <f t="shared" ca="1" si="5"/>
-        <v>47.249588675437479</v>
+        <v>47.102227509105674</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -934,19 +934,19 @@
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="3"/>
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F15" t="s">
         <v>23</v>
@@ -956,11 +956,11 @@
       </c>
       <c r="H15">
         <f t="shared" ca="1" si="4"/>
-        <v>-1.8456552286698733</v>
+        <v>-1.4264358109616369</v>
       </c>
       <c r="I15">
         <f t="shared" ca="1" si="5"/>
-        <v>48.171537957852173</v>
+        <v>47.88397997581275</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -973,15 +973,15 @@
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="D16">
+        <f t="shared" ca="1" si="2"/>
         <v>8</v>
       </c>
-      <c r="D16">
-        <f t="shared" ca="1" si="2"/>
-        <v>2</v>
-      </c>
       <c r="E16">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
         <v>25</v>
@@ -991,11 +991,11 @@
       </c>
       <c r="H16">
         <f t="shared" ca="1" si="4"/>
-        <v>-2.2151303989616355</v>
+        <v>-1.7417936925287818</v>
       </c>
       <c r="I16">
         <f t="shared" ca="1" si="5"/>
-        <v>48.428341768484856</v>
+        <v>48.282334207562975</v>
       </c>
     </row>
   </sheetData>
